--- a/biology/Microbiologie/Microbiote_intestinal/Microbiote_intestinal.xlsx
+++ b/biology/Microbiologie/Microbiote_intestinal/Microbiote_intestinal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le microbiote intestinal, également appelé flore intestinale, est l'ensemble des micro-organismes (archées, bactéries, eucaryotes) qui se trouvent dans le tube digestif des animaux. Cela comprend donc les bactéries de l'intestin et celles de l'estomac. La flore intestinale est un bon exemple de mutualisme : coopération entre différentes sortes d'organismes impliquant un avantage pour chacun.
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Humain
-Les avancées en matière de séquençage ont permis d'identifier les espèces dominantes du microbiote intestinal humain, de caractériser l'écosystème correspondant et d'aider au diagnostic de certaines pathologies[1].
-Ruminants
-Les ruminants hébergent une quantité très importante d'espèces symbiotes. La capacité à digérer la cellulose est due à des archées.[réf. nécessaire]
-Insectes
-Certains insectes sociaux pratiquent la trophallaxie — par exemple les fourmis ouvrières, les abeilles et les guêpes ouvrières pratiquent la trophallaxie stomodéale ; d’autres telles que les termites[2] et les blattes du genre Cryptocercus (en) pratiquent la trophallaxie proctodéale —, ce qui a pour effet d’échanger et renouveler en partie leur flore intestinale.
+          <t>Humain</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les avancées en matière de séquençage ont permis d'identifier les espèces dominantes du microbiote intestinal humain, de caractériser l'écosystème correspondant et d'aider au diagnostic de certaines pathologies.
 </t>
         </is>
       </c>
@@ -544,10 +557,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ruminants</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ruminants hébergent une quantité très importante d'espèces symbiotes. La capacité à digérer la cellulose est due à des archées.[réf. nécessaire]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Microbiote_intestinal</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Microbiote_intestinal</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains insectes sociaux pratiquent la trophallaxie — par exemple les fourmis ouvrières, les abeilles et les guêpes ouvrières pratiquent la trophallaxie stomodéale ; d’autres telles que les termites et les blattes du genre Cryptocercus (en) pratiquent la trophallaxie proctodéale —, ce qui a pour effet d’échanger et renouveler en partie leur flore intestinale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Microbiote_intestinal</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Microbiote_intestinal</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Entretien du microbiote intestinal</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
